--- a/Implementación/Test 10/pareto.xlsx
+++ b/Implementación/Test 10/pareto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E3CB412-7D7C-4B03-9140-B8662A2259CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D8B420-32EA-46A6-8FC0-AF9AA209F9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{649EEF23-9B8C-45B7-AC30-4B03CCD61F0D}"/>
   </bookViews>
